--- a/data/trans_camb/P07_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P07_R2-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>1.798185002995512</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-4.578093401407002</v>
+        <v>-4.578093401407013</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.000761564863869</v>
+        <v>-7.582508974294799</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.19239564358061</v>
+        <v>-5.3794606715323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.40881349255158</v>
+        <v>-10.876922451467</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.135006689331647</v>
+        <v>-0.9482206460745473</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.3755413294168031</v>
+        <v>-0.3042649483285534</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.714762202292872</v>
+        <v>-6.622131031088395</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.752484129031798</v>
+        <v>-2.715386242154926</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.139310600639842</v>
+        <v>-1.431092962271212</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.487033640623276</v>
+        <v>-7.744787864481053</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.763378846507254</v>
+        <v>1.372410086469539</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.323389224731861</v>
+        <v>3.711230971168609</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.6588356308776732</v>
+        <v>-1.417129348764013</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.938525827976062</v>
+        <v>7.151605747223784</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.151959104550988</v>
+        <v>8.359555713146845</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.243884948435237</v>
+        <v>0.8069093194128916</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.076833979350973</v>
+        <v>3.225277552606927</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.194015819498127</v>
+        <v>4.723591502334697</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.41456013833859</v>
+        <v>-1.437674886529129</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.03096799307771707</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.0788430359099531</v>
+        <v>-0.0788430359099533</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1013162545769513</v>
+        <v>-0.1082340616893734</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.07482033685685219</v>
+        <v>-0.07678614292546726</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1475766727533465</v>
+        <v>-0.1557873721767415</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.02187537949693141</v>
+        <v>-0.01830092604943218</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.008556491439886927</v>
+        <v>-0.003777258480100051</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1274347449505756</v>
+        <v>-0.1267444936525963</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04701050290310473</v>
+        <v>-0.04591945160805157</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01957873201843609</v>
+        <v>-0.02374209638463008</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1269619041652489</v>
+        <v>-0.1297362081913066</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.02674086331780344</v>
+        <v>0.02067224732982545</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.0510357611465795</v>
+        <v>0.05647603495568493</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.009122282719609567</v>
+        <v>-0.02126494175673311</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1447549453595932</v>
+        <v>0.1449277371905215</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.166908379336585</v>
+        <v>0.1730600765067421</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02590275912451205</v>
+        <v>0.01654655493027152</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05429681477631799</v>
+        <v>0.05650591216765546</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.09114582604076921</v>
+        <v>0.08284691474381566</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.02480630036918296</v>
+        <v>-0.0249446021275965</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-1.429431478100451</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-2.444219514384949</v>
+        <v>-2.44421951438496</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.341791618053545</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.107819095129563</v>
+        <v>-4.203156624842824</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.201207741205842</v>
+        <v>-6.355284163860558</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.34085073890239</v>
+        <v>-8.233643705128104</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.274632027089829</v>
+        <v>-3.302780399125197</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.017959206458853</v>
+        <v>-3.863505144418217</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.804407714052487</v>
+        <v>-4.873987127879495</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.089899931296173</v>
+        <v>-3.058784912623633</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.507942696428382</v>
+        <v>-4.388290995933185</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.171343707954454</v>
+        <v>-5.996570559909578</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.2859616499483557</v>
+        <v>-0.1718115591610637</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.018426611649616</v>
+        <v>-2.186462282984698</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.255640557737538</v>
+        <v>-4.282043848981195</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.83763235195657</v>
+        <v>1.958209642542652</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.173153670027296</v>
+        <v>1.008688654025048</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.1162644904319341</v>
+        <v>-0.08628080525154538</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2895760688953063</v>
+        <v>0.1734114060005229</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.323374101368433</v>
+        <v>-1.307181942390019</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-3.063166579962236</v>
+        <v>-2.921601238751268</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.01693363741101241</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.02895523685018987</v>
+        <v>-0.02895523685019</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.01518557163627842</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04450942833419749</v>
+        <v>-0.04495961837595003</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06706652348992258</v>
+        <v>-0.06841660415269533</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09002409250487554</v>
+        <v>-0.08898230256850037</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.03841789046282015</v>
+        <v>-0.03844233768366788</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04668460784782542</v>
+        <v>-0.04507125475992527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05574884622976062</v>
+        <v>-0.05687054400290884</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03470992087293474</v>
+        <v>-0.03464278532066698</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05066324310743171</v>
+        <v>-0.04939343888609145</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.06942166308394158</v>
+        <v>-0.0670825329728557</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.003269833813140628</v>
+        <v>-0.001811895269574553</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.02202928050388087</v>
+        <v>-0.02389435337923634</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.04696975001088592</v>
+        <v>-0.04747744359951219</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.02217438538946191</v>
+        <v>0.02356393737945282</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.01414328811023318</v>
+        <v>0.01227287252624466</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.001450606783124263</v>
+        <v>-0.001699261577942366</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.003300950330481491</v>
+        <v>0.001974868683148001</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.01509302117686873</v>
+        <v>-0.01503017266570375</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.03512759961998957</v>
+        <v>-0.03340165311066487</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.612622228133143</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.096750521828039</v>
+        <v>-2.09675052182805</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>6.578846346223488</v>
@@ -1092,7 +1092,7 @@
         <v>3.231255149623558</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.2281272856048622</v>
+        <v>0.22812728560484</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.370480952181169</v>
+        <v>-1.355858169280702</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8128163274692618</v>
+        <v>-0.5211222166498681</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.80984156572493</v>
+        <v>-5.64768290331103</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.252649468742332</v>
+        <v>2.834927278068054</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1478695225549196</v>
+        <v>0.04521228476141644</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.4945713958381411</v>
+        <v>-0.9885333726273524</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.364660730934338</v>
+        <v>1.264556637312392</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6168556409844035</v>
+        <v>0.6476699660885551</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.164113453464259</v>
+        <v>-2.463234937840892</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.955841995390169</v>
+        <v>5.705754538112418</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.120150806747389</v>
+        <v>6.075846086176949</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.05249371291342</v>
+        <v>1.292674681064367</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.69063486684096</v>
+        <v>11.14820579172823</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.754991202911819</v>
+        <v>8.576031706835584</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.027345773561831</v>
+        <v>7.126333673737043</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.02558725134441</v>
+        <v>6.847901237017684</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.019486678370387</v>
+        <v>6.171158660365506</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.767397645881059</v>
+        <v>2.873073968047692</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.02851072126460791</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.02288117625485269</v>
+        <v>-0.02288117625485281</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.07675626363037878</v>
@@ -1197,7 +1197,7 @@
         <v>0.0363512219913893</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.002566403832975405</v>
+        <v>0.002566403832975155</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.01444577093235491</v>
+        <v>-0.01445403665630612</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.008649705717041196</v>
+        <v>-0.005599235727495143</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.06216051327460815</v>
+        <v>-0.06046341228130937</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.02505034434731034</v>
+        <v>0.03213017320483678</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.001821583528635081</v>
+        <v>0.0004504478237053945</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.00559835472931499</v>
+        <v>-0.01108524922025149</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01578943231763225</v>
+        <v>0.01448614443947548</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.006544331110393088</v>
+        <v>0.007381803416722038</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.02384618064425265</v>
+        <v>-0.02733433383713324</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.0663893814098393</v>
+        <v>0.06388580266001399</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.06826483121928864</v>
+        <v>0.06770296109014355</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.01197740273372807</v>
+        <v>0.01447158560688049</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1283456906742108</v>
+        <v>0.1342820646303715</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1057060121327213</v>
+        <v>0.1029122309922473</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08519048753784435</v>
+        <v>0.08698311098102972</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08020646809060895</v>
+        <v>0.07839717956204202</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.06897772024645708</v>
+        <v>0.07152274584510793</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.03150596189633436</v>
+        <v>0.03292340502808788</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.1296253887585586</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.750405230523477</v>
+        <v>-1.750405230523466</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.979782954551923</v>
@@ -1306,7 +1306,7 @@
         <v>2.297536888393126</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.288609176894606</v>
+        <v>1.288609176894617</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.873730023688058</v>
+        <v>-3.070210254856191</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.84889916081067</v>
+        <v>-1.991527671330801</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.584708959319881</v>
+        <v>-3.668588465084381</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2512076972028224</v>
+        <v>0.02931753310970929</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.66481349732573</v>
+        <v>2.573581328070361</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.383328946055169</v>
+        <v>2.369757723336309</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.9759993712200217</v>
+        <v>-0.9548101743678902</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8946326992949428</v>
+        <v>0.9038354472666112</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02453046131535357</v>
+        <v>0.09316088383146953</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7890848406185301</v>
+        <v>0.8822893008300902</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.760849255957809</v>
+        <v>1.534349865581322</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.02607317323006056</v>
+        <v>-0.08073374580242469</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.088422433298254</v>
+        <v>4.292943080692902</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.855073276163058</v>
+        <v>6.850169118853517</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.282002924261189</v>
+        <v>6.264656333622661</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.994940643476674</v>
+        <v>2.029434726702748</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.803616210122031</v>
+        <v>3.682017367403795</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.707478050921109</v>
+        <v>2.70774341147289</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.001536644028195823</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.02075017687635704</v>
+        <v>-0.02075017687635691</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.02774256381934698</v>
@@ -1411,7 +1411,7 @@
         <v>0.02954722432258979</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.01657201875895967</v>
+        <v>0.01657201875895982</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.03354961324578268</v>
+        <v>-0.03605367867894482</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02161152217395372</v>
+        <v>-0.02331601986247003</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.04207227601663851</v>
+        <v>-0.04319066271525161</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.003656378568523059</v>
+        <v>0.0005289412548267405</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0365945021149735</v>
+        <v>0.03589918757024797</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03283637320570904</v>
+        <v>0.03235891486069805</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01241777238521681</v>
+        <v>-0.01213102619349005</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.01129712262526145</v>
+        <v>0.01150775742080317</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.0003113512982272938</v>
+        <v>0.001180034814859803</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.009229638981840036</v>
+        <v>0.01051828824561787</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.0211242539995945</v>
+        <v>0.01840694213725685</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.0001790396001461913</v>
+        <v>-0.0009445088041284646</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.05819779709498566</v>
+        <v>0.06071276236083833</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.09720941506859868</v>
+        <v>0.09792859196125794</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08968838233576876</v>
+        <v>0.08937502441402505</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02581339438212018</v>
+        <v>0.02641988420295057</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.049651226582726</v>
+        <v>0.04777881011680706</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.03523047149640691</v>
+        <v>0.03516192900885871</v>
       </c>
     </row>
     <row r="28">
